--- a/secure/26P-Niko.xlsx
+++ b/secure/26P-Niko.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Niko-1010039</t>
+    <t>26P-Niko-1049128</t>
   </si>
   <si>
-    <t>26P-Niko-256291</t>
+    <t>26P-Niko-789959</t>
   </si>
   <si>
-    <t>26P-Niko-1087996</t>
+    <t>26P-Niko-579100</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="Fabb937a"/>
+        <fgColor rgb="Fe2215c6"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WS503"/>
+  <dimension ref="A1:WA503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -721,14 +721,11 @@
       </c>
       <c r="M45" s="4"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>-0.824</v>
       </c>
       <c r="M46" s="4"/>
-      <c r="AD46" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
@@ -904,14 +901,11 @@
       </c>
       <c r="M75" s="4"/>
     </row>
-    <row r="76" spans="1:617" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>-0.704</v>
       </c>
       <c r="M76" s="4"/>
-      <c r="WS76" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
@@ -1057,11 +1051,14 @@
       </c>
       <c r="M100" s="4"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:219" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>-0.604</v>
       </c>
       <c r="M101" s="4"/>
+      <c r="HK101" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
@@ -1519,11 +1516,14 @@
       </c>
       <c r="M177" s="4"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:452" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>-0.296</v>
       </c>
       <c r="M178" s="4"/>
+      <c r="QJ178" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
@@ -1813,11 +1813,14 @@
       </c>
       <c r="M226" s="4"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:599" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>-0.1</v>
       </c>
       <c r="M227" s="4"/>
+      <c r="WA227" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
@@ -2857,14 +2860,11 @@
       </c>
       <c r="M400" s="4"/>
     </row>
-    <row r="401" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>0.596</v>
       </c>
       <c r="M401" s="4"/>
-      <c r="DT401" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
